--- a/RUDN/Importance/Varible_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_in_Southern Asia.xlsx
@@ -14,144 +14,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
   <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
     <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
     <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+    <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
+    <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
   </si>
 </sst>
 </file>
@@ -509,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.09183673560619354</v>
+        <v>0.05511811003088951</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -533,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0714285746216774</v>
+        <v>0.04724409431219101</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -541,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06122449040412903</v>
+        <v>0.03937007859349251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -549,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05102040991187096</v>
+        <v>0.03149606287479401</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -557,7 +632,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05102040991187096</v>
+        <v>0.03149606287479401</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -565,7 +640,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05102040991187096</v>
+        <v>0.03149606287479401</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -573,7 +648,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.04081632569432259</v>
+        <v>0.03149606287479401</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -581,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04081632569432259</v>
+        <v>0.03149606287479401</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -589,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03061224520206451</v>
+        <v>0.0236220471560955</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -597,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03061224520206451</v>
+        <v>0.0236220471560955</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -605,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03061224520206451</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -613,7 +688,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.03061224520206451</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -621,7 +696,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +704,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -645,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -653,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -661,7 +736,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -669,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.02040816284716129</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -677,7 +752,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -685,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -693,7 +768,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -701,7 +776,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -709,7 +784,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -717,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -725,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -733,7 +808,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -741,7 +816,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -749,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -757,7 +832,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -765,7 +840,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -773,7 +848,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.01020408142358065</v>
+        <v>0.015748031437397</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -781,7 +856,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -789,7 +864,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -797,7 +872,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +880,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,7 +888,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -821,7 +896,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -829,7 +904,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -837,7 +912,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -845,7 +920,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -853,7 +928,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -861,7 +936,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -869,7 +944,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -877,7 +952,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -885,7 +960,207 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.01020408142358065</v>
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.007874015718698502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.007874015718698502</v>
       </c>
     </row>
   </sheetData>
